--- a/data/hotels_by_city/Dallas/Dallas_shard_597.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_597.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="127">
   <si>
     <t>STR#</t>
   </si>
@@ -145,6 +145,262 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56535-d1201120-r574189331-Motel_6_Rhome-Rhome_Texas.html</t>
+  </si>
+  <si>
+    <t>56535</t>
+  </si>
+  <si>
+    <t>1201120</t>
+  </si>
+  <si>
+    <t>574189331</t>
+  </si>
+  <si>
+    <t>04/18/2018</t>
+  </si>
+  <si>
+    <t>Great nice motel</t>
+  </si>
+  <si>
+    <t>Everything was great one the best motel 6 I’ve been, morning coffe was great tho it would be better if there were coffe pots but beds were very comfortable and slept nicely will definitely stay here again.</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56535-d1201120-r573167700-Motel_6_Rhome-Rhome_Texas.html</t>
+  </si>
+  <si>
+    <t>573167700</t>
+  </si>
+  <si>
+    <t>04/13/2018</t>
+  </si>
+  <si>
+    <t>Surprising Stay</t>
+  </si>
+  <si>
+    <t>Wasn't bad. Budget motel, but clean and everything working. Very hot water, AC could have been just a little bit better, and a popular spot for construction crews, but it's a safe place, a clean place, no frills, very affordable.</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56535-d1201120-r505481981-Motel_6_Rhome-Rhome_Texas.html</t>
+  </si>
+  <si>
+    <t>505481981</t>
+  </si>
+  <si>
+    <t>07/25/2017</t>
+  </si>
+  <si>
+    <t>Beautiful Place, Very Nice</t>
+  </si>
+  <si>
+    <t>Great, had no problem definitly one the best place I've stayed in, I check in at around 1:00 lady was very nice, polite and professional, she mentioned few places that were open and had good night sleep. NO BUGS OR ANYTHING. Beds were so comfortable slept like an angel.will definitely stay and do recommend.</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56535-d1201120-r441711206-Motel_6_Rhome-Rhome_Texas.html</t>
+  </si>
+  <si>
+    <t>441711206</t>
+  </si>
+  <si>
+    <t>12/03/2016</t>
+  </si>
+  <si>
+    <t>Rude lies and greed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tried charging more and lied multiple times about the reservation. Guest needs and feelings don't matter to. Rooms are clean but I won't stay here again. Asked for light for hall and accused unreasonable </t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56535-d1201120-r407838897-Motel_6_Rhome-Rhome_Texas.html</t>
+  </si>
+  <si>
+    <t>407838897</t>
+  </si>
+  <si>
+    <t>08/20/2016</t>
+  </si>
+  <si>
+    <t>Bad customer service!</t>
+  </si>
+  <si>
+    <t>Owner was very rude when we arrived. Gave us a room that had people in it so we had to go back and get another room. Owner didn't even apologize about it!  If they can not treat people right why have a people business. Do not recommend this hotel at all!</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56535-d1201120-r395032123-Motel_6_Rhome-Rhome_Texas.html</t>
+  </si>
+  <si>
+    <t>395032123</t>
+  </si>
+  <si>
+    <t>07/21/2016</t>
+  </si>
+  <si>
+    <t>Kept the light on.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stayed for one night.  Rooms were clean.  Check-in manager (owner) was friendly.  Only problem I experienced was the price. I asked the gentlemen if this hotel offers a military discount and he said yes.  The funny thing is it's the same price that he quoted the customer in front of me.  I spoke with him the next morning and he apologized did a partial refund back to me to the lower price.  I am happy with the outcome and I would consider staying again if my travels brought me through the area.  </t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56535-d1201120-r265546855-Motel_6_Rhome-Rhome_Texas.html</t>
+  </si>
+  <si>
+    <t>265546855</t>
+  </si>
+  <si>
+    <t>04/13/2015</t>
+  </si>
+  <si>
+    <t>Worst hotel ever!</t>
+  </si>
+  <si>
+    <t>This has to be the worst hotel on the planet with the most ungrateful owner. I called the hotel office about noon and informed them that we were going to the race and  would be showing up late and he said that was ok. We showed up about midnight and the office was closed so I rang the bell like the sign said and the owner finally came to the window pissed off because I woke him up. Once I finally got done with the pissed owned and got to my room I instantly felt dirty. We walked into the room and the chair, carpet, walls, pillows, and bed sheets all had stains on them. The bed was hard and squeaked when you sat on it and the room smelled. I went back to the office to complain and rang the bell three different times and could not get anyone to come to the window. I finally just left my key in the room and drove 2 hours to get back home. This is the worst place with the worst owner. MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Rhome, responded to this reviewResponded April 22, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 22, 2015</t>
+  </si>
+  <si>
+    <t>This has to be the worst hotel on the planet with the most ungrateful owner. I called the hotel office about noon and informed them that we were going to the race and  would be showing up late and he said that was ok. We showed up about midnight and the office was closed so I rang the bell like the sign said and the owner finally came to the window pissed off because I woke him up. Once I finally got done with the pissed owned and got to my room I instantly felt dirty. We walked into the room and the chair, carpet, walls, pillows, and bed sheets all had stains on them. The bed was hard and squeaked when you sat on it and the room smelled. I went back to the office to complain and rang the bell three different times and could not get anyone to come to the window. I finally just left my key in the room and drove 2 hours to get back home. This is the worst place with the worst owner. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56535-d1201120-r263861515-Motel_6_Rhome-Rhome_Texas.html</t>
+  </si>
+  <si>
+    <t>263861515</t>
+  </si>
+  <si>
+    <t>04/05/2015</t>
+  </si>
+  <si>
+    <t>The motel from hell.</t>
+  </si>
+  <si>
+    <t>While registering, I encountered the worst property owner.  He was not very accommodating.  If it weren't for his wife.  We should have left that very moment..  We arrived very early in the morning and didn't inspect the room due to lack of sleep. The bed was very uncomfortable but we needed sleep.
+The next morning we looked at the bed and realized it was just a box spring and could not fathom why a handicap room had such poor bedding. During the night we heard the towel rack fell down.  Because of a heavy schedule we had to rush out without any further thought on the room.  Upon returning from the business we were there for, we talked with the desk clerk and reported the towel rack.  He indicated that the rack fell down before, also stating that this was a new business for the owner. I then assumed that being a new business, the bed was all that he could afford.
+The next morning while preparing to complete our business in the area, I looked in the units next to ours only to find, a mattress on the bed.  I looked in the other room and noticed a mattress on that bed, also.  Reflecting on how we were treated at check in, I came to the conclusion that the owner was upset because we woke him up when we arrived.  My wife and I decided we were not welcome...While registering, I encountered the worst property owner.  He was not very accommodating.  If it weren't for his wife.  We should have left that very moment..  We arrived very early in the morning and didn't inspect the room due to lack of sleep. The bed was very uncomfortable but we needed sleep.The next morning we looked at the bed and realized it was just a box spring and could not fathom why a handicap room had such poor bedding. During the night we heard the towel rack fell down.  Because of a heavy schedule we had to rush out without any further thought on the room.  Upon returning from the business we were there for, we talked with the desk clerk and reported the towel rack.  He indicated that the rack fell down before, also stating that this was a new business for the owner. I then assumed that being a new business, the bed was all that he could afford.The next morning while preparing to complete our business in the area, I looked in the units next to ours only to find, a mattress on the bed.  I looked in the other room and noticed a mattress on that bed, also.  Reflecting on how we were treated at check in, I came to the conclusion that the owner was upset because we woke him up when we arrived.  My wife and I decided we were not welcome there and checked out.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Rhome, responded to this reviewResponded April 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 17, 2015</t>
+  </si>
+  <si>
+    <t>While registering, I encountered the worst property owner.  He was not very accommodating.  If it weren't for his wife.  We should have left that very moment..  We arrived very early in the morning and didn't inspect the room due to lack of sleep. The bed was very uncomfortable but we needed sleep.
+The next morning we looked at the bed and realized it was just a box spring and could not fathom why a handicap room had such poor bedding. During the night we heard the towel rack fell down.  Because of a heavy schedule we had to rush out without any further thought on the room.  Upon returning from the business we were there for, we talked with the desk clerk and reported the towel rack.  He indicated that the rack fell down before, also stating that this was a new business for the owner. I then assumed that being a new business, the bed was all that he could afford.
+The next morning while preparing to complete our business in the area, I looked in the units next to ours only to find, a mattress on the bed.  I looked in the other room and noticed a mattress on that bed, also.  Reflecting on how we were treated at check in, I came to the conclusion that the owner was upset because we woke him up when we arrived.  My wife and I decided we were not welcome...While registering, I encountered the worst property owner.  He was not very accommodating.  If it weren't for his wife.  We should have left that very moment..  We arrived very early in the morning and didn't inspect the room due to lack of sleep. The bed was very uncomfortable but we needed sleep.The next morning we looked at the bed and realized it was just a box spring and could not fathom why a handicap room had such poor bedding. During the night we heard the towel rack fell down.  Because of a heavy schedule we had to rush out without any further thought on the room.  Upon returning from the business we were there for, we talked with the desk clerk and reported the towel rack.  He indicated that the rack fell down before, also stating that this was a new business for the owner. I then assumed that being a new business, the bed was all that he could afford.The next morning while preparing to complete our business in the area, I looked in the units next to ours only to find, a mattress on the bed.  I looked in the other room and noticed a mattress on that bed, also.  Reflecting on how we were treated at check in, I came to the conclusion that the owner was upset because we woke him up when we arrived.  My wife and I decided we were not welcome there and checked out.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56535-d1201120-r255422235-Motel_6_Rhome-Rhome_Texas.html</t>
+  </si>
+  <si>
+    <t>255422235</t>
+  </si>
+  <si>
+    <t>02/20/2015</t>
+  </si>
+  <si>
+    <t>Very freindly,spacious,and clean.</t>
+  </si>
+  <si>
+    <t>I stayed for two weeks for a moving transition.The staff was very friendly and helpful. The room was clean and spacious very well taken care of. Microwave and refrigerator were a very nice bonus. Overall I would definitely stay here again,and suggest it to my friends and family.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56535-d1201120-r209056361-Motel_6_Rhome-Rhome_Texas.html</t>
+  </si>
+  <si>
+    <t>209056361</t>
+  </si>
+  <si>
+    <t>06/05/2014</t>
+  </si>
+  <si>
+    <t>Very Good Motel in a small town</t>
+  </si>
+  <si>
+    <t>It was a very good experience the desk clerk was very helpful and very understandable.The rooms were nice and clean.I stayed in room 204 and i really liked the room there bed were nice and comfy.It would stay here again</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56535-d1201120-r184007656-Motel_6_Rhome-Rhome_Texas.html</t>
+  </si>
+  <si>
+    <t>184007656</t>
+  </si>
+  <si>
+    <t>11/07/2013</t>
+  </si>
+  <si>
+    <t>Appreciated the refrigerator and microwave</t>
+  </si>
+  <si>
+    <t>We selected this hotel because of its close proximity to the event we were attending.  The rooms all have outside access only - the upstairs rooms are accessed via outdoor concrete stairs to the upstairs level - there is no elevator.  The room was spacious and clean, and there was a refrigerator and microwave.  The box spring and mattress appeared to be new.  There was a hairdryer, but no shampoo or other toiletries, no Kleenex, and no extra toilet paper.  The towels were a little sketchy, being of different sizes, shapes, and shades.  One appeared to be a cleaning rag, and another smelled strongly of urine.  We would stay there again, but would come better prepared.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>We selected this hotel because of its close proximity to the event we were attending.  The rooms all have outside access only - the upstairs rooms are accessed via outdoor concrete stairs to the upstairs level - there is no elevator.  The room was spacious and clean, and there was a refrigerator and microwave.  The box spring and mattress appeared to be new.  There was a hairdryer, but no shampoo or other toiletries, no Kleenex, and no extra toilet paper.  The towels were a little sketchy, being of different sizes, shapes, and shades.  One appeared to be a cleaning rag, and another smelled strongly of urine.  We would stay there again, but would come better prepared.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56535-d1201120-r128456687-Motel_6_Rhome-Rhome_Texas.html</t>
+  </si>
+  <si>
+    <t>128456687</t>
+  </si>
+  <si>
+    <t>04/23/2012</t>
+  </si>
+  <si>
+    <t>Appears clean but smells</t>
+  </si>
+  <si>
+    <t>Husband and I have stayed at this motel a couple of times because of the location we desired.  It is clean and no frills.  The service at the front desk is polite.  My suggestion for the housekeeping dept. is to wash the comforters more often as they smell of spicy food.</t>
+  </si>
+  <si>
+    <t>May 2011</t>
   </si>
 </sst>
 </file>
@@ -643,6 +899,746 @@
         <v>42</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>58792</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>58792</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>3</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>3</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>58792</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" t="s">
+        <v>66</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>58792</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" t="s">
+        <v>59</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>58792</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L6" t="s">
+        <v>77</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>78</v>
+      </c>
+      <c r="O6" t="s">
+        <v>66</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>58792</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>84</v>
+      </c>
+      <c r="O7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>58792</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J8" t="s">
+        <v>87</v>
+      </c>
+      <c r="K8" t="s">
+        <v>88</v>
+      </c>
+      <c r="L8" t="s">
+        <v>89</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>90</v>
+      </c>
+      <c r="O8" t="s">
+        <v>66</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>91</v>
+      </c>
+      <c r="X8" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>58792</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" t="s">
+        <v>96</v>
+      </c>
+      <c r="K9" t="s">
+        <v>97</v>
+      </c>
+      <c r="L9" t="s">
+        <v>98</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>99</v>
+      </c>
+      <c r="O9" t="s">
+        <v>59</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>100</v>
+      </c>
+      <c r="X9" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>58792</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>103</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>104</v>
+      </c>
+      <c r="J10" t="s">
+        <v>105</v>
+      </c>
+      <c r="K10" t="s">
+        <v>106</v>
+      </c>
+      <c r="L10" t="s">
+        <v>107</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s"/>
+      <c r="O10" t="s"/>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>58792</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>108</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>109</v>
+      </c>
+      <c r="J11" t="s">
+        <v>110</v>
+      </c>
+      <c r="K11" t="s">
+        <v>111</v>
+      </c>
+      <c r="L11" t="s">
+        <v>112</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>113</v>
+      </c>
+      <c r="O11" t="s">
+        <v>66</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="n">
+        <v>4</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>58792</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>114</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>115</v>
+      </c>
+      <c r="J12" t="s">
+        <v>116</v>
+      </c>
+      <c r="K12" t="s">
+        <v>117</v>
+      </c>
+      <c r="L12" t="s">
+        <v>118</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>119</v>
+      </c>
+      <c r="O12" t="s">
+        <v>66</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>3</v>
+      </c>
+      <c r="R12" t="n">
+        <v>4</v>
+      </c>
+      <c r="S12" t="n">
+        <v>4</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>3</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>58792</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>121</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>122</v>
+      </c>
+      <c r="J13" t="s">
+        <v>123</v>
+      </c>
+      <c r="K13" t="s">
+        <v>124</v>
+      </c>
+      <c r="L13" t="s">
+        <v>125</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>126</v>
+      </c>
+      <c r="O13" t="s">
+        <v>66</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>3</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>4</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>125</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_597.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_597.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="139">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Jose C</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -177,6 +180,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>rryan313131</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56535-d1201120-r573167700-Motel_6_Rhome-Rhome_Texas.html</t>
   </si>
   <si>
@@ -198,6 +204,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>Bella F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56535-d1201120-r505481981-Motel_6_Rhome-Rhome_Texas.html</t>
   </si>
   <si>
@@ -219,6 +228,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>AMKPCS A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56535-d1201120-r441711206-Motel_6_Rhome-Rhome_Texas.html</t>
   </si>
   <si>
@@ -237,6 +249,9 @@
     <t>December 2016</t>
   </si>
   <si>
+    <t>Brenda M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56535-d1201120-r407838897-Motel_6_Rhome-Rhome_Texas.html</t>
   </si>
   <si>
@@ -255,6 +270,9 @@
     <t>August 2016</t>
   </si>
   <si>
+    <t>19Crazy_Willy69</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56535-d1201120-r395032123-Motel_6_Rhome-Rhome_Texas.html</t>
   </si>
   <si>
@@ -273,6 +291,9 @@
     <t>July 2016</t>
   </si>
   <si>
+    <t>Boxbl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56535-d1201120-r265546855-Motel_6_Rhome-Rhome_Texas.html</t>
   </si>
   <si>
@@ -298,6 +319,9 @@
   </si>
   <si>
     <t>This has to be the worst hotel on the planet with the most ungrateful owner. I called the hotel office about noon and informed them that we were going to the race and  would be showing up late and he said that was ok. We showed up about midnight and the office was closed so I rang the bell like the sign said and the owner finally came to the window pissed off because I woke him up. Once I finally got done with the pissed owned and got to my room I instantly felt dirty. We walked into the room and the chair, carpet, walls, pillows, and bed sheets all had stains on them. The bed was hard and squeaked when you sat on it and the room smelled. I went back to the office to complain and rang the bell three different times and could not get anyone to come to the window. I finally just left my key in the room and drove 2 hours to get back home. This is the worst place with the worst owner. More</t>
+  </si>
+  <si>
+    <t>Khalid A</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56535-d1201120-r263861515-Motel_6_Rhome-Rhome_Texas.html</t>
@@ -331,6 +355,9 @@
 The next morning while preparing to complete our business in the area, I looked in the units next to ours only to find, a mattress on the bed.  I looked in the other room and noticed a mattress on that bed, also.  Reflecting on how we were treated at check in, I came to the conclusion that the owner was upset because we woke him up when we arrived.  My wife and I decided we were not welcome...While registering, I encountered the worst property owner.  He was not very accommodating.  If it weren't for his wife.  We should have left that very moment..  We arrived very early in the morning and didn't inspect the room due to lack of sleep. The bed was very uncomfortable but we needed sleep.The next morning we looked at the bed and realized it was just a box spring and could not fathom why a handicap room had such poor bedding. During the night we heard the towel rack fell down.  Because of a heavy schedule we had to rush out without any further thought on the room.  Upon returning from the business we were there for, we talked with the desk clerk and reported the towel rack.  He indicated that the rack fell down before, also stating that this was a new business for the owner. I then assumed that being a new business, the bed was all that he could afford.The next morning while preparing to complete our business in the area, I looked in the units next to ours only to find, a mattress on the bed.  I looked in the other room and noticed a mattress on that bed, also.  Reflecting on how we were treated at check in, I came to the conclusion that the owner was upset because we woke him up when we arrived.  My wife and I decided we were not welcome there and checked out.More</t>
   </si>
   <si>
+    <t>Sherrielbanks</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56535-d1201120-r255422235-Motel_6_Rhome-Rhome_Texas.html</t>
   </si>
   <si>
@@ -346,6 +373,9 @@
     <t>I stayed for two weeks for a moving transition.The staff was very friendly and helpful. The room was clean and spacious very well taken care of. Microwave and refrigerator were a very nice bonus. Overall I would definitely stay here again,and suggest it to my friends and family.</t>
   </si>
   <si>
+    <t>KAITIE H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56535-d1201120-r209056361-Motel_6_Rhome-Rhome_Texas.html</t>
   </si>
   <si>
@@ -364,6 +394,9 @@
     <t>June 2014</t>
   </si>
   <si>
+    <t>SavannahMay2012</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56535-d1201120-r184007656-Motel_6_Rhome-Rhome_Texas.html</t>
   </si>
   <si>
@@ -383,6 +416,9 @@
   </si>
   <si>
     <t>We selected this hotel because of its close proximity to the event we were attending.  The rooms all have outside access only - the upstairs rooms are accessed via outdoor concrete stairs to the upstairs level - there is no elevator.  The room was spacious and clean, and there was a refrigerator and microwave.  The box spring and mattress appeared to be new.  There was a hairdryer, but no shampoo or other toiletries, no Kleenex, and no extra toilet paper.  The towels were a little sketchy, being of different sizes, shapes, and shades.  One appeared to be a cleaning rag, and another smelled strongly of urine.  We would stay there again, but would come better prepared.More</t>
+  </si>
+  <si>
+    <t>Karyn_D680</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56535-d1201120-r128456687-Motel_6_Rhome-Rhome_Texas.html</t>
@@ -903,43 +939,47 @@
       <c r="A2" t="n">
         <v>58792</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>169496</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -953,50 +993,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>58792</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>123696</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M3" t="n">
         <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P3" t="n">
         <v>4</v>
@@ -1016,50 +1060,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>58792</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>67126</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="O4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P4" t="n">
         <v>5</v>
@@ -1079,50 +1127,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>58792</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>169497</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="L5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="O5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1136,50 +1188,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>58792</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>14326</v>
+      </c>
+      <c r="C6" t="s">
+        <v>77</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="L6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="O6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1193,50 +1249,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>58792</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>169498</v>
+      </c>
+      <c r="C7" t="s">
+        <v>84</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="J7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="K7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="L7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="O7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1250,50 +1310,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>58792</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>169499</v>
+      </c>
+      <c r="C8" t="s">
+        <v>91</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="J8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="K8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="L8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="O8" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1305,56 +1369,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="X8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="Y8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>58792</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>169500</v>
+      </c>
+      <c r="C9" t="s">
+        <v>101</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="J9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="K9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="L9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="O9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -1366,47 +1434,51 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="X9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="Y9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>58792</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>169501</v>
+      </c>
+      <c r="C10" t="s">
+        <v>111</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="J10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="K10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="L10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
@@ -1435,50 +1507,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>58792</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>169502</v>
+      </c>
+      <c r="C11" t="s">
+        <v>117</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="J11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="K11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="L11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="O11" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P11" t="n">
         <v>5</v>
@@ -1502,50 +1578,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>58792</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>169503</v>
+      </c>
+      <c r="C12" t="s">
+        <v>124</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="J12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="K12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="L12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="M12" t="n">
         <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="O12" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P12" t="n">
         <v>3</v>
@@ -1569,50 +1649,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>58792</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>42347</v>
+      </c>
+      <c r="C13" t="s">
+        <v>132</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="J13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="K13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="L13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="M13" t="n">
         <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="O13" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P13" t="n">
         <v>4</v>
@@ -1636,7 +1720,7 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_597.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_597.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="192">
   <si>
     <t>STR#</t>
   </si>
@@ -147,21 +147,106 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>Jose C</t>
-  </si>
-  <si>
-    <t>06/15/2018</t>
+    <t>08/26/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56535-d1201120-r598994071-Motel_6_Rhome-Rhome_Texas.html</t>
+  </si>
+  <si>
+    <t>56535</t>
+  </si>
+  <si>
+    <t>1201120</t>
+  </si>
+  <si>
+    <t>598994071</t>
+  </si>
+  <si>
+    <t>07/23/2018</t>
+  </si>
+  <si>
+    <t>FRINDLY STAFF, GREAT PRICES, AWESOME ROOMS NICE AND BIG TOO</t>
+  </si>
+  <si>
+    <t>Rooms very nice and clean, looks new we had couple of rooms they all liked this place very much, office staff was very friendly gentleman who checked me in was very knowledgeable of things around and helped us with our luggage very helpful.Thank you guys we will be back soon</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56535-d1201120-r596403517-Motel_6_Rhome-Rhome_Texas.html</t>
+  </si>
+  <si>
+    <t>596403517</t>
+  </si>
+  <si>
+    <t>07/15/2018</t>
+  </si>
+  <si>
+    <t>Newly renovated great friendly staff.</t>
+  </si>
+  <si>
+    <t>Made me feel like I was at home roomsAre big and spacious.microwave and refrigerator are also in all rooms we were here for couple of days and enjoyed every bit of it. Thanks for making our stay remarkable.LO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56535-d1201120-r575753358-Motel_6_Rhome-Rhome_Texas.html</t>
+  </si>
+  <si>
+    <t>575753358</t>
+  </si>
+  <si>
+    <t>04/25/2018</t>
+  </si>
+  <si>
+    <t>Dishonest, unprofessional, low life management!  No concern whatsoever for traveler's needs.</t>
+  </si>
+  <si>
+    <t>I had plans to attend the three day Pate Swap Meet at the Texas Motor Speedway with friends in April 2018.  I made a reservation at Motel 6 Rhome, TX via Motel 6 website ten days in advance.  This morning while I was driving to Rhome from my home near Lubbock to check in this afternoon a fast talking millennial bs agent representative of the motel called to inform me my reservation would not be honored.  He first claimed they would not be able to provide the first floor room I asked for (I have a disability) so I reluctantly agreed to take a second floor room.  The caller then told me they would not provide any room and tried to push me to another unit in another town more distant. No reason for this cancellation was provided.  The cancellation caused me to miss the event.  
+This was only one Motel 6 but is typical of the attitude of Motel 6 lodging nationwide.  I've had other bad experiences at Motel 6 units around the country.  I've experienced bed bug bites in two separate units at different times, false advertising of rates (bait and switch), poor service, terrible attitudes, etc.  
+It does no good to complain to Motel 6 national headquarters about bad service, bed bug bites, or dishonest advertising.  Management denies they have any control over individual units.  They only care about the money.  They don't even pretend to care...I had plans to attend the three day Pate Swap Meet at the Texas Motor Speedway with friends in April 2018.  I made a reservation at Motel 6 Rhome, TX via Motel 6 website ten days in advance.  This morning while I was driving to Rhome from my home near Lubbock to check in this afternoon a fast talking millennial bs agent representative of the motel called to inform me my reservation would not be honored.  He first claimed they would not be able to provide the first floor room I asked for (I have a disability) so I reluctantly agreed to take a second floor room.  The caller then told me they would not provide any room and tried to push me to another unit in another town more distant. No reason for this cancellation was provided.  The cancellation caused me to miss the event.  This was only one Motel 6 but is typical of the attitude of Motel 6 lodging nationwide.  I've had other bad experiences at Motel 6 units around the country.  I've experienced bed bug bites in two separate units at different times, false advertising of rates (bait and switch), poor service, terrible attitudes, etc.  It does no good to complain to Motel 6 national headquarters about bad service, bed bug bites, or dishonest advertising.  Management denies they have any control over individual units.  They only care about the money.  They don't even pretend to care about good service or fair treatment of guests.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team at Motel 6 Rhome, responded to this reviewResponded April 30, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 30, 2018</t>
+  </si>
+  <si>
+    <t>I had plans to attend the three day Pate Swap Meet at the Texas Motor Speedway with friends in April 2018.  I made a reservation at Motel 6 Rhome, TX via Motel 6 website ten days in advance.  This morning while I was driving to Rhome from my home near Lubbock to check in this afternoon a fast talking millennial bs agent representative of the motel called to inform me my reservation would not be honored.  He first claimed they would not be able to provide the first floor room I asked for (I have a disability) so I reluctantly agreed to take a second floor room.  The caller then told me they would not provide any room and tried to push me to another unit in another town more distant. No reason for this cancellation was provided.  The cancellation caused me to miss the event.  
+This was only one Motel 6 but is typical of the attitude of Motel 6 lodging nationwide.  I've had other bad experiences at Motel 6 units around the country.  I've experienced bed bug bites in two separate units at different times, false advertising of rates (bait and switch), poor service, terrible attitudes, etc.  
+It does no good to complain to Motel 6 national headquarters about bad service, bed bug bites, or dishonest advertising.  Management denies they have any control over individual units.  They only care about the money.  They don't even pretend to care...I had plans to attend the three day Pate Swap Meet at the Texas Motor Speedway with friends in April 2018.  I made a reservation at Motel 6 Rhome, TX via Motel 6 website ten days in advance.  This morning while I was driving to Rhome from my home near Lubbock to check in this afternoon a fast talking millennial bs agent representative of the motel called to inform me my reservation would not be honored.  He first claimed they would not be able to provide the first floor room I asked for (I have a disability) so I reluctantly agreed to take a second floor room.  The caller then told me they would not provide any room and tried to push me to another unit in another town more distant. No reason for this cancellation was provided.  The cancellation caused me to miss the event.  This was only one Motel 6 but is typical of the attitude of Motel 6 lodging nationwide.  I've had other bad experiences at Motel 6 units around the country.  I've experienced bed bug bites in two separate units at different times, false advertising of rates (bait and switch), poor service, terrible attitudes, etc.  It does no good to complain to Motel 6 national headquarters about bad service, bed bug bites, or dishonest advertising.  Management denies they have any control over individual units.  They only care about the money.  They don't even pretend to care about good service or fair treatment of guests.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56535-d1201120-r574555420-Motel_6_Rhome-Rhome_Texas.html</t>
+  </si>
+  <si>
+    <t>574555420</t>
+  </si>
+  <si>
+    <t>04/20/2018</t>
+  </si>
+  <si>
+    <t>New update was really nice</t>
+  </si>
+  <si>
+    <t>Update was really nice one of the best Motel 6 I’ve been to the manager Raj and Pooja were great I’ve been to many mote 6 close by this location and this is better than all of them, its the best I will recommend they get full quickly</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56535-d1201120-r574189331-Motel_6_Rhome-Rhome_Texas.html</t>
   </si>
   <si>
-    <t>56535</t>
-  </si>
-  <si>
-    <t>1201120</t>
-  </si>
-  <si>
     <t>574189331</t>
   </si>
   <si>
@@ -177,12 +262,6 @@
     <t>March 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
-    <t>rryan313131</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56535-d1201120-r573167700-Motel_6_Rhome-Rhome_Texas.html</t>
   </si>
   <si>
@@ -198,15 +277,6 @@
     <t>Wasn't bad. Budget motel, but clean and everything working. Very hot water, AC could have been just a little bit better, and a popular spot for construction crews, but it's a safe place, a clean place, no frills, very affordable.</t>
   </si>
   <si>
-    <t>April 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
-    <t>Bella F</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56535-d1201120-r505481981-Motel_6_Rhome-Rhome_Texas.html</t>
   </si>
   <si>
@@ -228,7 +298,45 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
-    <t>AMKPCS A</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56535-d1201120-r490190776-Motel_6_Rhome-Rhome_Texas.html</t>
+  </si>
+  <si>
+    <t>490190776</t>
+  </si>
+  <si>
+    <t>06/03/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very nice </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The room was very clean and very nice and comfortable. .pleasant stay..quiet, The Bathroom was new and the shower was great. The bed was new and ver comfortable.  The staff was great and personable.   I will definitely stay here again. </t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56535-d1201120-r444475967-Motel_6_Rhome-Rhome_Texas.html</t>
+  </si>
+  <si>
+    <t>444475967</t>
+  </si>
+  <si>
+    <t>12/15/2016</t>
+  </si>
+  <si>
+    <t>Very nice rooms, mediocre service</t>
+  </si>
+  <si>
+    <t>I stay in a lot of Motel 6's in my road travels. My room was remarkably nice, it is probably the nicest looking Motel 6 I have ever stayed at. If someone were to blindfold me and put me in my room and not tell me what motel chain I was at, I would never guess it was a Motel 6. Room was very new and modern looking: fresh paint, fixtures, and bedding. There was a microwave and a fridge, and even a granite countertop at the sink. The only negative I can report is the washcloths in my room weren't all that white compared to the towels, and one had an orange stain on it, which made me not want to use them. 
+Customer service department wasn't awful, but they weren't spectacular either. I arrived late and got the impression I woke the desk clerk up, as it took awhile for them to check me in and they weren't all that personable. I was charged a slightly higher price than the one that was listed on the Motel 6 website, which I looked up just before arrival. But it was late and I was tired, and I didn't feel like arguing over it. Just annoyed me, as I wished I'd booked online instead. I was given the room directly adjacent to the office, which I had qualms about as these areas tend to be noisy early in the morning....I stay in a lot of Motel 6's in my road travels. My room was remarkably nice, it is probably the nicest looking Motel 6 I have ever stayed at. If someone were to blindfold me and put me in my room and not tell me what motel chain I was at, I would never guess it was a Motel 6. Room was very new and modern looking: fresh paint, fixtures, and bedding. There was a microwave and a fridge, and even a granite countertop at the sink. The only negative I can report is the washcloths in my room weren't all that white compared to the towels, and one had an orange stain on it, which made me not want to use them. Customer service department wasn't awful, but they weren't spectacular either. I arrived late and got the impression I woke the desk clerk up, as it took awhile for them to check me in and they weren't all that personable. I was charged a slightly higher price than the one that was listed on the Motel 6 website, which I looked up just before arrival. But it was late and I was tired, and I didn't feel like arguing over it. Just annoyed me, as I wished I'd booked online instead. I was given the room directly adjacent to the office, which I had qualms about as these areas tend to be noisy early in the morning. Sure enough, the next morning, the staff members were speaking very loudly in a foreign language outside on the sidewalk, which disrupted my sleep. This motel is located directly on the side of Highway 287, which is the main artery between Amarillo and Fort Worth, hence there is a lot of loud traffic and truck noise. Keep this in mind if you are a light sleeper, you might want to bring ear plugs. This would be an excellent place for someone who is staying for an extended time or on business and wants to save money, as this room had a mini fridge and microwave, and it is close enough to Fort Worth without being actually IN the city. I wouldn't likely stay here again, but it isn't a terrible motel by any means.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>I stay in a lot of Motel 6's in my road travels. My room was remarkably nice, it is probably the nicest looking Motel 6 I have ever stayed at. If someone were to blindfold me and put me in my room and not tell me what motel chain I was at, I would never guess it was a Motel 6. Room was very new and modern looking: fresh paint, fixtures, and bedding. There was a microwave and a fridge, and even a granite countertop at the sink. The only negative I can report is the washcloths in my room weren't all that white compared to the towels, and one had an orange stain on it, which made me not want to use them. 
+Customer service department wasn't awful, but they weren't spectacular either. I arrived late and got the impression I woke the desk clerk up, as it took awhile for them to check me in and they weren't all that personable. I was charged a slightly higher price than the one that was listed on the Motel 6 website, which I looked up just before arrival. But it was late and I was tired, and I didn't feel like arguing over it. Just annoyed me, as I wished I'd booked online instead. I was given the room directly adjacent to the office, which I had qualms about as these areas tend to be noisy early in the morning....I stay in a lot of Motel 6's in my road travels. My room was remarkably nice, it is probably the nicest looking Motel 6 I have ever stayed at. If someone were to blindfold me and put me in my room and not tell me what motel chain I was at, I would never guess it was a Motel 6. Room was very new and modern looking: fresh paint, fixtures, and bedding. There was a microwave and a fridge, and even a granite countertop at the sink. The only negative I can report is the washcloths in my room weren't all that white compared to the towels, and one had an orange stain on it, which made me not want to use them. Customer service department wasn't awful, but they weren't spectacular either. I arrived late and got the impression I woke the desk clerk up, as it took awhile for them to check me in and they weren't all that personable. I was charged a slightly higher price than the one that was listed on the Motel 6 website, which I looked up just before arrival. But it was late and I was tired, and I didn't feel like arguing over it. Just annoyed me, as I wished I'd booked online instead. I was given the room directly adjacent to the office, which I had qualms about as these areas tend to be noisy early in the morning. Sure enough, the next morning, the staff members were speaking very loudly in a foreign language outside on the sidewalk, which disrupted my sleep. This motel is located directly on the side of Highway 287, which is the main artery between Amarillo and Fort Worth, hence there is a lot of loud traffic and truck noise. Keep this in mind if you are a light sleeper, you might want to bring ear plugs. This would be an excellent place for someone who is staying for an extended time or on business and wants to save money, as this room had a mini fridge and microwave, and it is close enough to Fort Worth without being actually IN the city. I wouldn't likely stay here again, but it isn't a terrible motel by any means.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56535-d1201120-r441711206-Motel_6_Rhome-Rhome_Texas.html</t>
@@ -249,9 +357,6 @@
     <t>December 2016</t>
   </si>
   <si>
-    <t>Brenda M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56535-d1201120-r407838897-Motel_6_Rhome-Rhome_Texas.html</t>
   </si>
   <si>
@@ -270,9 +375,6 @@
     <t>August 2016</t>
   </si>
   <si>
-    <t>19Crazy_Willy69</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56535-d1201120-r395032123-Motel_6_Rhome-Rhome_Texas.html</t>
   </si>
   <si>
@@ -291,7 +393,37 @@
     <t>July 2016</t>
   </si>
   <si>
-    <t>Boxbl</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56535-d1201120-r388864378-Motel_6_Rhome-Rhome_Texas.html</t>
+  </si>
+  <si>
+    <t>388864378</t>
+  </si>
+  <si>
+    <t>07/03/2016</t>
+  </si>
+  <si>
+    <t>Set Your Expectations Low</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If you don't mind stains on the chairs and carpet, or crunchy towels, then this place is for you!  Only bar soap is provided so bring your own shampoo and other toiletries.  It did have a TV, microwave, and fridge in case you needed it.  At least it's cheap! </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56535-d1201120-r303271698-Motel_6_Rhome-Rhome_Texas.html</t>
+  </si>
+  <si>
+    <t>303271698</t>
+  </si>
+  <si>
+    <t>08/25/2015</t>
+  </si>
+  <si>
+    <t>OK place to stay</t>
+  </si>
+  <si>
+    <t>We where on the last leg of a long road trip and picked this place because of it's location just off the interstate at a good point for us to stop- the beds weren't good and the towels needed some bleach, but staff was friendly and helpful- room was priced right...</t>
+  </si>
+  <si>
+    <t>August 2015</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56535-d1201120-r265546855-Motel_6_Rhome-Rhome_Texas.html</t>
@@ -319,9 +451,6 @@
   </si>
   <si>
     <t>This has to be the worst hotel on the planet with the most ungrateful owner. I called the hotel office about noon and informed them that we were going to the race and  would be showing up late and he said that was ok. We showed up about midnight and the office was closed so I rang the bell like the sign said and the owner finally came to the window pissed off because I woke him up. Once I finally got done with the pissed owned and got to my room I instantly felt dirty. We walked into the room and the chair, carpet, walls, pillows, and bed sheets all had stains on them. The bed was hard and squeaked when you sat on it and the room smelled. I went back to the office to complain and rang the bell three different times and could not get anyone to come to the window. I finally just left my key in the room and drove 2 hours to get back home. This is the worst place with the worst owner. More</t>
-  </si>
-  <si>
-    <t>Khalid A</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56535-d1201120-r263861515-Motel_6_Rhome-Rhome_Texas.html</t>
@@ -355,9 +484,6 @@
 The next morning while preparing to complete our business in the area, I looked in the units next to ours only to find, a mattress on the bed.  I looked in the other room and noticed a mattress on that bed, also.  Reflecting on how we were treated at check in, I came to the conclusion that the owner was upset because we woke him up when we arrived.  My wife and I decided we were not welcome...While registering, I encountered the worst property owner.  He was not very accommodating.  If it weren't for his wife.  We should have left that very moment..  We arrived very early in the morning and didn't inspect the room due to lack of sleep. The bed was very uncomfortable but we needed sleep.The next morning we looked at the bed and realized it was just a box spring and could not fathom why a handicap room had such poor bedding. During the night we heard the towel rack fell down.  Because of a heavy schedule we had to rush out without any further thought on the room.  Upon returning from the business we were there for, we talked with the desk clerk and reported the towel rack.  He indicated that the rack fell down before, also stating that this was a new business for the owner. I then assumed that being a new business, the bed was all that he could afford.The next morning while preparing to complete our business in the area, I looked in the units next to ours only to find, a mattress on the bed.  I looked in the other room and noticed a mattress on that bed, also.  Reflecting on how we were treated at check in, I came to the conclusion that the owner was upset because we woke him up when we arrived.  My wife and I decided we were not welcome there and checked out.More</t>
   </si>
   <si>
-    <t>Sherrielbanks</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56535-d1201120-r255422235-Motel_6_Rhome-Rhome_Texas.html</t>
   </si>
   <si>
@@ -373,7 +499,37 @@
     <t>I stayed for two weeks for a moving transition.The staff was very friendly and helpful. The room was clean and spacious very well taken care of. Microwave and refrigerator were a very nice bonus. Overall I would definitely stay here again,and suggest it to my friends and family.</t>
   </si>
   <si>
-    <t>KAITIE H</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56535-d1201120-r210335383-Motel_6_Rhome-Rhome_Texas.html</t>
+  </si>
+  <si>
+    <t>210335383</t>
+  </si>
+  <si>
+    <t>06/14/2014</t>
+  </si>
+  <si>
+    <t>Comfortable,Clean,Friendly and Affordable</t>
+  </si>
+  <si>
+    <t>We stayed at the Motel 6 in Rhome,Tx.There is only one real choice if staying in Rhome, Tx. The Motel 6 is the only hotel in this town. That being said, it is a nice comfortable place with a friendly staff. The Hotel is clean and will not disappoint.</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56535-d1201120-r209182929-Motel_6_Rhome-Rhome_Texas.html</t>
+  </si>
+  <si>
+    <t>209182929</t>
+  </si>
+  <si>
+    <t>06/06/2014</t>
+  </si>
+  <si>
+    <t>Very nice Motel</t>
+  </si>
+  <si>
+    <t>I was coming from Texas motor speedway to Rhome tx. To stay a night with my wife. The rooms were very clean and nice. The office staff was very friendly. The area was very quiet. Overall i liked it.and I would stay here again.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56535-d1201120-r209056361-Motel_6_Rhome-Rhome_Texas.html</t>
@@ -391,12 +547,6 @@
     <t>It was a very good experience the desk clerk was very helpful and very understandable.The rooms were nice and clean.I stayed in room 204 and i really liked the room there bed were nice and comfy.It would stay here again</t>
   </si>
   <si>
-    <t>June 2014</t>
-  </si>
-  <si>
-    <t>SavannahMay2012</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56535-d1201120-r184007656-Motel_6_Rhome-Rhome_Texas.html</t>
   </si>
   <si>
@@ -418,9 +568,6 @@
     <t>We selected this hotel because of its close proximity to the event we were attending.  The rooms all have outside access only - the upstairs rooms are accessed via outdoor concrete stairs to the upstairs level - there is no elevator.  The room was spacious and clean, and there was a refrigerator and microwave.  The box spring and mattress appeared to be new.  There was a hairdryer, but no shampoo or other toiletries, no Kleenex, and no extra toilet paper.  The towels were a little sketchy, being of different sizes, shapes, and shades.  One appeared to be a cleaning rag, and another smelled strongly of urine.  We would stay there again, but would come better prepared.More</t>
   </si>
   <si>
-    <t>Karyn_D680</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56535-d1201120-r128456687-Motel_6_Rhome-Rhome_Texas.html</t>
   </si>
   <si>
@@ -437,6 +584,24 @@
   </si>
   <si>
     <t>May 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56535-d1201120-r85024974-Motel_6_Rhome-Rhome_Texas.html</t>
+  </si>
+  <si>
+    <t>85024974</t>
+  </si>
+  <si>
+    <t>10/27/2010</t>
+  </si>
+  <si>
+    <t>Hotel has bedbugs, employees know it and aren't doing anything about it.</t>
+  </si>
+  <si>
+    <t>This hotel was recommended for a family wedding, we booked well ahead and the price was very inexpensive compared to hotels in Dallas/Fort Worth area.  After checking in and settling in, we noticed blood spots on the pillow and flecks in the bed.  Further inspection revealed adult and immature bed bugs as well as casings.  Room also needed a good vacuuming.  We requested a second room which was also infested.  Checked out, received a refund.  The employees did not seem surprised and there was no indication that they were dealing with the infestation.</t>
+  </si>
+  <si>
+    <t>October 2010</t>
   </si>
 </sst>
 </file>
@@ -939,47 +1104,43 @@
       <c r="A2" t="n">
         <v>58792</v>
       </c>
-      <c r="B2" t="n">
-        <v>169496</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>45</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>46</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>50</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
         <v>51</v>
       </c>
-      <c r="M2" t="n">
-        <v>5</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>52</v>
-      </c>
-      <c r="O2" t="s">
-        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -993,188 +1154,172 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>58792</v>
       </c>
-      <c r="B3" t="n">
-        <v>123696</v>
-      </c>
-      <c r="C3" t="s">
-        <v>54</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
         <v>55</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>56</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>57</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" t="s">
         <v>58</v>
       </c>
-      <c r="L3" t="s">
-        <v>59</v>
-      </c>
-      <c r="M3" t="n">
-        <v>3</v>
-      </c>
-      <c r="N3" t="s">
-        <v>60</v>
-      </c>
-      <c r="O3" t="s">
-        <v>61</v>
-      </c>
-      <c r="P3" t="n">
-        <v>4</v>
-      </c>
+      <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
-      <c r="S3" t="n">
-        <v>3</v>
-      </c>
+      <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>3</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>58792</v>
       </c>
-      <c r="B4" t="n">
-        <v>67126</v>
-      </c>
-      <c r="C4" t="s">
-        <v>62</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4" t="s">
         <v>63</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
         <v>64</v>
       </c>
-      <c r="J4" t="s">
+      <c r="O4" t="s">
         <v>65</v>
       </c>
-      <c r="K4" t="s">
-        <v>66</v>
-      </c>
-      <c r="L4" t="s">
-        <v>67</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5</v>
-      </c>
-      <c r="N4" t="s">
-        <v>68</v>
-      </c>
-      <c r="O4" t="s">
-        <v>69</v>
-      </c>
       <c r="P4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q4" t="s"/>
-      <c r="R4" t="n">
-        <v>5</v>
-      </c>
+      <c r="R4" t="s"/>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
-      <c r="W4" t="s"/>
-      <c r="X4" t="s"/>
+      <c r="W4" t="s">
+        <v>66</v>
+      </c>
+      <c r="X4" t="s">
+        <v>67</v>
+      </c>
       <c r="Y4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>58792</v>
       </c>
-      <c r="B5" t="n">
-        <v>169497</v>
-      </c>
-      <c r="C5" t="s">
-        <v>70</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" t="s">
         <v>71</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="K5" t="s">
         <v>72</v>
       </c>
-      <c r="J5" t="s">
+      <c r="L5" t="s">
         <v>73</v>
       </c>
-      <c r="K5" t="s">
-        <v>74</v>
-      </c>
-      <c r="L5" t="s">
-        <v>75</v>
-      </c>
       <c r="M5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="O5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1188,54 +1333,50 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>58792</v>
       </c>
-      <c r="B6" t="n">
-        <v>14326</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" t="s">
         <v>77</v>
       </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="L6" t="s">
         <v>78</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
         <v>79</v>
       </c>
-      <c r="J6" t="s">
-        <v>80</v>
-      </c>
-      <c r="K6" t="s">
-        <v>81</v>
-      </c>
-      <c r="L6" t="s">
-        <v>82</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="s">
-        <v>83</v>
-      </c>
       <c r="O6" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1249,180 +1390,176 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>58792</v>
       </c>
-      <c r="B7" t="n">
-        <v>169498</v>
-      </c>
-      <c r="C7" t="s">
-        <v>84</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
         <v>46</v>
       </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
       <c r="I7" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="J7" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="K7" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="L7" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>64</v>
+      </c>
+      <c r="O7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P7" t="n">
         <v>4</v>
       </c>
-      <c r="N7" t="s">
-        <v>90</v>
-      </c>
-      <c r="O7" t="s">
-        <v>53</v>
-      </c>
-      <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
       <c r="R7" t="s"/>
-      <c r="S7" t="s"/>
+      <c r="S7" t="n">
+        <v>3</v>
+      </c>
       <c r="T7" t="s"/>
-      <c r="U7" t="s"/>
+      <c r="U7" t="n">
+        <v>3</v>
+      </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>58792</v>
       </c>
-      <c r="B8" t="n">
-        <v>169499</v>
-      </c>
-      <c r="C8" t="s">
-        <v>91</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
         <v>46</v>
       </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
       <c r="I8" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="J8" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="K8" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="L8" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="O8" t="s">
-        <v>69</v>
-      </c>
-      <c r="P8" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
       <c r="Q8" t="s"/>
-      <c r="R8" t="s"/>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s">
-        <v>98</v>
-      </c>
-      <c r="X8" t="s">
-        <v>99</v>
-      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>58792</v>
       </c>
-      <c r="B9" t="n">
-        <v>169500</v>
-      </c>
-      <c r="C9" t="s">
-        <v>101</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
         <v>46</v>
       </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
       <c r="I9" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="J9" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="K9" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="L9" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="M9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="O9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -1433,73 +1570,63 @@
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s">
-        <v>108</v>
-      </c>
-      <c r="X9" t="s">
-        <v>109</v>
-      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>58792</v>
       </c>
-      <c r="B10" t="n">
-        <v>169501</v>
-      </c>
-      <c r="C10" t="s">
-        <v>111</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
         <v>46</v>
       </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
       <c r="I10" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="J10" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="K10" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="L10" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="M10" t="n">
-        <v>5</v>
-      </c>
-      <c r="N10" t="s"/>
-      <c r="O10" t="s"/>
-      <c r="P10" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>103</v>
+      </c>
+      <c r="O10" t="s">
+        <v>65</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
       <c r="R10" t="n">
-        <v>5</v>
-      </c>
-      <c r="S10" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S10" t="s"/>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1507,220 +1634,885 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>58792</v>
       </c>
-      <c r="B11" t="n">
-        <v>169502</v>
-      </c>
-      <c r="C11" t="s">
-        <v>117</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
         <v>46</v>
       </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
       <c r="I11" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="J11" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="K11" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="L11" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="M11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="O11" t="s">
-        <v>69</v>
-      </c>
-      <c r="P11" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>5</v>
-      </c>
-      <c r="R11" t="n">
-        <v>4</v>
-      </c>
-      <c r="S11" t="n">
-        <v>5</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>5</v>
-      </c>
+      <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>58792</v>
       </c>
-      <c r="B12" t="n">
-        <v>169503</v>
-      </c>
-      <c r="C12" t="s">
-        <v>124</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
         <v>46</v>
       </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
       <c r="I12" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="J12" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="K12" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="L12" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="M12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="O12" t="s">
-        <v>69</v>
-      </c>
-      <c r="P12" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>3</v>
-      </c>
-      <c r="R12" t="n">
-        <v>4</v>
-      </c>
-      <c r="S12" t="n">
-        <v>4</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="n">
-        <v>3</v>
-      </c>
+      <c r="U12" t="s"/>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>58792</v>
       </c>
-      <c r="B13" t="n">
-        <v>42347</v>
-      </c>
-      <c r="C13" t="s">
-        <v>132</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
         <v>46</v>
       </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
       <c r="I13" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="J13" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="K13" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="L13" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="M13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="O13" t="s">
-        <v>69</v>
-      </c>
-      <c r="P13" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>3</v>
-      </c>
-      <c r="R13" t="n">
-        <v>5</v>
-      </c>
-      <c r="S13" t="n">
-        <v>4</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>4</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>58792</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>123</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>124</v>
+      </c>
+      <c r="J14" t="s">
+        <v>125</v>
+      </c>
+      <c r="K14" t="s">
+        <v>126</v>
+      </c>
+      <c r="L14" t="s">
+        <v>127</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>122</v>
+      </c>
+      <c r="O14" t="s">
+        <v>52</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>58792</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>128</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>129</v>
+      </c>
+      <c r="J15" t="s">
+        <v>130</v>
+      </c>
+      <c r="K15" t="s">
+        <v>131</v>
+      </c>
+      <c r="L15" t="s">
+        <v>132</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>133</v>
+      </c>
+      <c r="O15" t="s">
+        <v>52</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>3</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>58792</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>134</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>135</v>
+      </c>
+      <c r="J16" t="s">
+        <v>136</v>
+      </c>
+      <c r="K16" t="s">
         <v>137</v>
+      </c>
+      <c r="L16" t="s">
+        <v>138</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>139</v>
+      </c>
+      <c r="O16" t="s">
+        <v>91</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>140</v>
+      </c>
+      <c r="X16" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>58792</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>143</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>144</v>
+      </c>
+      <c r="J17" t="s">
+        <v>145</v>
+      </c>
+      <c r="K17" t="s">
+        <v>146</v>
+      </c>
+      <c r="L17" t="s">
+        <v>147</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>148</v>
+      </c>
+      <c r="O17" t="s">
+        <v>58</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>149</v>
+      </c>
+      <c r="X17" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>58792</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>152</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>153</v>
+      </c>
+      <c r="J18" t="s">
+        <v>154</v>
+      </c>
+      <c r="K18" t="s">
+        <v>155</v>
+      </c>
+      <c r="L18" t="s">
+        <v>156</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s"/>
+      <c r="O18" t="s"/>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>58792</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>157</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>158</v>
+      </c>
+      <c r="J19" t="s">
+        <v>159</v>
+      </c>
+      <c r="K19" t="s">
+        <v>160</v>
+      </c>
+      <c r="L19" t="s">
+        <v>161</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>162</v>
+      </c>
+      <c r="O19" t="s">
+        <v>58</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>58792</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>163</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>164</v>
+      </c>
+      <c r="J20" t="s">
+        <v>165</v>
+      </c>
+      <c r="K20" t="s">
+        <v>166</v>
+      </c>
+      <c r="L20" t="s">
+        <v>167</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>162</v>
+      </c>
+      <c r="O20" t="s">
+        <v>52</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>4</v>
+      </c>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>58792</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>168</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>169</v>
+      </c>
+      <c r="J21" t="s">
+        <v>170</v>
+      </c>
+      <c r="K21" t="s">
+        <v>171</v>
+      </c>
+      <c r="L21" t="s">
+        <v>172</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>162</v>
+      </c>
+      <c r="O21" t="s">
+        <v>91</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>58792</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>173</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>174</v>
+      </c>
+      <c r="J22" t="s">
+        <v>175</v>
+      </c>
+      <c r="K22" t="s">
+        <v>176</v>
+      </c>
+      <c r="L22" t="s">
+        <v>177</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>178</v>
+      </c>
+      <c r="O22" t="s">
+        <v>91</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>3</v>
+      </c>
+      <c r="R22" t="n">
+        <v>4</v>
+      </c>
+      <c r="S22" t="n">
+        <v>4</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>3</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>58792</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>180</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>181</v>
+      </c>
+      <c r="J23" t="s">
+        <v>182</v>
+      </c>
+      <c r="K23" t="s">
+        <v>183</v>
+      </c>
+      <c r="L23" t="s">
+        <v>184</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s">
+        <v>185</v>
+      </c>
+      <c r="O23" t="s">
+        <v>91</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>3</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>4</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>58792</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>186</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>187</v>
+      </c>
+      <c r="J24" t="s">
+        <v>188</v>
+      </c>
+      <c r="K24" t="s">
+        <v>189</v>
+      </c>
+      <c r="L24" t="s">
+        <v>190</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>191</v>
+      </c>
+      <c r="O24" t="s">
+        <v>91</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1</v>
+      </c>
+      <c r="R24" t="n">
+        <v>3</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>2</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>
